--- a/FX_RATES.xlsx
+++ b/FX_RATES.xlsx
@@ -426,7 +426,7 @@
   <dimension ref="A2:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -480,7 +480,7 @@
         <v>0.66374500000000003</v>
       </c>
       <c r="H3" s="1">
-        <v>1</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
